--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vtn-Plaur.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vtn-Plaur.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H2">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I2">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J2">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.7241200188267</v>
+        <v>56.98117766666667</v>
       </c>
       <c r="N2">
-        <v>38.7241200188267</v>
+        <v>170.943533</v>
       </c>
       <c r="O2">
-        <v>0.9330649108198242</v>
+        <v>0.952030123851636</v>
       </c>
       <c r="P2">
-        <v>0.9330649108198242</v>
+        <v>0.9520301238516359</v>
       </c>
       <c r="Q2">
-        <v>63.13729391807495</v>
+        <v>115.1925979528826</v>
       </c>
       <c r="R2">
-        <v>63.13729391807495</v>
+        <v>1036.733381575943</v>
       </c>
       <c r="S2">
-        <v>0.008521320197291907</v>
+        <v>0.01062715381084758</v>
       </c>
       <c r="T2">
-        <v>0.008521320197291907</v>
+        <v>0.01062715381084758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H3">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I3">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J3">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46080732489328</v>
+        <v>2.516719</v>
       </c>
       <c r="N3">
-        <v>2.46080732489328</v>
+        <v>7.550157</v>
       </c>
       <c r="O3">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="P3">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="Q3">
-        <v>4.012194861290647</v>
+        <v>5.087774802116335</v>
       </c>
       <c r="R3">
-        <v>4.012194861290647</v>
+        <v>45.78997321904701</v>
       </c>
       <c r="S3">
-        <v>0.00054150558228469</v>
+        <v>0.0004693753447522787</v>
       </c>
       <c r="T3">
-        <v>0.00054150558228469</v>
+        <v>0.0004693753447522787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H4">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I4">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J4">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.317137056925309</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N4">
-        <v>0.317137056925309</v>
+        <v>1.063163</v>
       </c>
       <c r="O4">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="P4">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="Q4">
-        <v>0.5170724490491129</v>
+        <v>0.7164266811858888</v>
       </c>
       <c r="R4">
-        <v>0.5170724490491129</v>
+        <v>6.447840130673</v>
       </c>
       <c r="S4">
-        <v>6.978664478814487E-05</v>
+        <v>6.609432090655423E-05</v>
       </c>
       <c r="T4">
-        <v>6.978664478814487E-05</v>
+        <v>6.609432090655423E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H5">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I5">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J5">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.7241200188267</v>
+        <v>56.98117766666667</v>
       </c>
       <c r="N5">
-        <v>38.7241200188267</v>
+        <v>170.943533</v>
       </c>
       <c r="O5">
-        <v>0.9330649108198242</v>
+        <v>0.952030123851636</v>
       </c>
       <c r="P5">
-        <v>0.9330649108198242</v>
+        <v>0.9520301238516359</v>
       </c>
       <c r="Q5">
-        <v>973.1398288257393</v>
+        <v>1432.542932606641</v>
       </c>
       <c r="R5">
-        <v>973.1398288257393</v>
+        <v>12892.88639345977</v>
       </c>
       <c r="S5">
-        <v>0.1313397449203632</v>
+        <v>0.1321600029515826</v>
       </c>
       <c r="T5">
-        <v>0.1313397449203632</v>
+        <v>0.1321600029515826</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H6">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I6">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J6">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.46080732489328</v>
+        <v>2.516719</v>
       </c>
       <c r="N6">
-        <v>2.46080732489328</v>
+        <v>7.550157</v>
       </c>
       <c r="O6">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="P6">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="Q6">
-        <v>61.84025919131341</v>
+        <v>63.27191125984601</v>
       </c>
       <c r="R6">
-        <v>61.84025919131341</v>
+        <v>569.447201338614</v>
       </c>
       <c r="S6">
-        <v>0.008346266001461414</v>
+        <v>0.005837183506701668</v>
       </c>
       <c r="T6">
-        <v>0.008346266001461414</v>
+        <v>0.005837183506701667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H7">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I7">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J7">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.317137056925309</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N7">
-        <v>0.317137056925309</v>
+        <v>1.063163</v>
       </c>
       <c r="O7">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="P7">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="Q7">
-        <v>7.969676293239233</v>
+        <v>8.909530621780666</v>
       </c>
       <c r="R7">
-        <v>7.969676293239233</v>
+        <v>80.18577559602599</v>
       </c>
       <c r="S7">
-        <v>0.001075626770630663</v>
+        <v>0.0008219534413039972</v>
       </c>
       <c r="T7">
-        <v>0.001075626770630663</v>
+        <v>0.0008219534413039971</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H8">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I8">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J8">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.7241200188267</v>
+        <v>56.98117766666667</v>
       </c>
       <c r="N8">
-        <v>38.7241200188267</v>
+        <v>170.943533</v>
       </c>
       <c r="O8">
-        <v>0.9330649108198242</v>
+        <v>0.952030123851636</v>
       </c>
       <c r="P8">
-        <v>0.9330649108198242</v>
+        <v>0.9520301238516359</v>
       </c>
       <c r="Q8">
-        <v>5877.110962097279</v>
+        <v>8771.755957738405</v>
       </c>
       <c r="R8">
-        <v>5877.110962097279</v>
+        <v>78945.80361964565</v>
       </c>
       <c r="S8">
-        <v>0.7932038457021691</v>
+        <v>0.8092429670892057</v>
       </c>
       <c r="T8">
-        <v>0.7932038457021691</v>
+        <v>0.8092429670892056</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H9">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I9">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J9">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46080732489328</v>
+        <v>2.516719</v>
       </c>
       <c r="N9">
-        <v>2.46080732489328</v>
+        <v>7.550157</v>
       </c>
       <c r="O9">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="P9">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="Q9">
-        <v>373.4736308457958</v>
+        <v>387.4269677496974</v>
       </c>
       <c r="R9">
-        <v>373.4736308457958</v>
+        <v>3486.842709747276</v>
       </c>
       <c r="S9">
-        <v>0.05040584092520219</v>
+        <v>0.0357422790171848</v>
       </c>
       <c r="T9">
-        <v>0.05040584092520219</v>
+        <v>0.03574227901718479</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H10">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I10">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J10">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.317137056925309</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N10">
-        <v>0.317137056925309</v>
+        <v>1.063163</v>
       </c>
       <c r="O10">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="P10">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="Q10">
-        <v>48.13149202194511</v>
+        <v>54.55489433049821</v>
       </c>
       <c r="R10">
-        <v>48.13149202194511</v>
+        <v>490.9940489744839</v>
       </c>
       <c r="S10">
-        <v>0.006496063255808611</v>
+        <v>0.0050329905175147</v>
       </c>
       <c r="T10">
-        <v>0.006496063255808611</v>
+        <v>0.005032990517514699</v>
       </c>
     </row>
   </sheetData>
